--- a/biology/Histoire de la zoologie et de la botanique/Pierre_Allorge/Pierre_Allorge.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Pierre_Allorge/Pierre_Allorge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Allorge est un botaniste, cryptogame français, né le 12 avril 1891 à Paris 16e et mort le 21 janvier 1944 à Paris 13e[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Allorge est un botaniste, cryptogame français, né le 12 avril 1891 à Paris 16e et mort le 21 janvier 1944 à Paris 13e.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il était membre de la Société botanique de France dont il devint le président en 1913. Il présenta sa thèse de doctorat ès-sciences naturelles, intitulée « Les Associations végétales du Vexin français » (deuxième partie en ligne), à l'université de Paris le 24 novembre 1922, le président du jury étant Gaston Bonnier. 
 En 1930, il fut l'un des fondateurs de la Station internationale de géobotanique méditerranéenne et alpine de Montpellier, avec la fonction de vice-président. Il devint professeur titulaire de la chaire de cryptogamie au Muséum d'histoire naturelle en 1933.
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Outre de nombreux articles dans des revues spécialisées, il publia :
 Essai de géographie botanique des hauteurs de l'Hautie et de leurs dépendances, mémoire présenté à la faculté des sciences de Paris pour l'obtention du diplôme d'études supérieures (botanique), 1913
